--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.12165933333333</v>
+        <v>21.83470933333334</v>
       </c>
       <c r="H2">
-        <v>45.36497799999999</v>
+        <v>65.50412800000001</v>
       </c>
       <c r="I2">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="J2">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.389289333333333</v>
+        <v>3.825035</v>
       </c>
       <c r="N2">
-        <v>13.167868</v>
+        <v>11.475105</v>
       </c>
       <c r="O2">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="P2">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="Q2">
-        <v>66.37333801410044</v>
+        <v>83.51852741482668</v>
       </c>
       <c r="R2">
-        <v>597.3600421269039</v>
+        <v>751.66674673344</v>
       </c>
       <c r="S2">
-        <v>0.006777842745402335</v>
+        <v>0.006206504983887093</v>
       </c>
       <c r="T2">
-        <v>0.006777842745402334</v>
+        <v>0.006206504983887093</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.12165933333333</v>
+        <v>21.83470933333334</v>
       </c>
       <c r="H3">
-        <v>45.36497799999999</v>
+        <v>65.50412800000001</v>
       </c>
       <c r="I3">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="J3">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>173.692871</v>
       </c>
       <c r="O3">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="P3">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="Q3">
-        <v>875.5081412968708</v>
+        <v>1264.177783852388</v>
       </c>
       <c r="R3">
-        <v>7879.573271671837</v>
+        <v>11377.60005467149</v>
       </c>
       <c r="S3">
-        <v>0.08940421985058276</v>
+        <v>0.0939447324906533</v>
       </c>
       <c r="T3">
-        <v>0.08940421985058275</v>
+        <v>0.09394473249065328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.12165933333333</v>
+        <v>21.83470933333334</v>
       </c>
       <c r="H4">
-        <v>45.36497799999999</v>
+        <v>65.50412800000001</v>
       </c>
       <c r="I4">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="J4">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.43015733333333</v>
+        <v>61.10114166666667</v>
       </c>
       <c r="N4">
-        <v>142.290472</v>
+        <v>183.303425</v>
       </c>
       <c r="O4">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="P4">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="Q4">
-        <v>717.2226813210684</v>
+        <v>1334.125668226489</v>
       </c>
       <c r="R4">
-        <v>6455.004131889615</v>
+        <v>12007.1310140384</v>
       </c>
       <c r="S4">
-        <v>0.07324059167247682</v>
+        <v>0.09914276347153897</v>
       </c>
       <c r="T4">
-        <v>0.0732405916724768</v>
+        <v>0.09914276347153896</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.12165933333333</v>
+        <v>21.83470933333334</v>
       </c>
       <c r="H5">
-        <v>45.36497799999999</v>
+        <v>65.50412800000001</v>
       </c>
       <c r="I5">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="J5">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.129282</v>
+        <v>0.1059033333333333</v>
       </c>
       <c r="N5">
-        <v>0.387846</v>
+        <v>0.31771</v>
       </c>
       <c r="O5">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="P5">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="Q5">
-        <v>1.954958361932</v>
+        <v>2.312368500764445</v>
       </c>
       <c r="R5">
-        <v>17.594625257388</v>
+        <v>20.81131650688</v>
       </c>
       <c r="S5">
-        <v>0.0001996343825312734</v>
+        <v>0.0001718388370677888</v>
       </c>
       <c r="T5">
-        <v>0.0001996343825312734</v>
+        <v>0.0001718388370677888</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,43 +788,43 @@
         <v>30.93224</v>
       </c>
       <c r="H6">
-        <v>92.79672000000001</v>
+        <v>92.79671999999999</v>
       </c>
       <c r="I6">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="J6">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>4.389289333333333</v>
+        <v>3.825035</v>
       </c>
       <c r="N6">
-        <v>13.167868</v>
+        <v>11.475105</v>
       </c>
       <c r="O6">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="P6">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="Q6">
-        <v>135.7705510881067</v>
+        <v>118.3169006284</v>
       </c>
       <c r="R6">
-        <v>1221.93495979296</v>
+        <v>1064.8521056556</v>
       </c>
       <c r="S6">
-        <v>0.01386447438482461</v>
+        <v>0.008792473432641909</v>
       </c>
       <c r="T6">
-        <v>0.01386447438482461</v>
+        <v>0.008792473432641907</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>30.93224</v>
       </c>
       <c r="H7">
-        <v>92.79672000000001</v>
+        <v>92.79671999999999</v>
       </c>
       <c r="I7">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="J7">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>173.692871</v>
       </c>
       <c r="O7">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="P7">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="Q7">
-        <v>1790.903190687014</v>
+        <v>1790.903190687013</v>
       </c>
       <c r="R7">
         <v>16118.12871618312</v>
       </c>
       <c r="S7">
-        <v>0.1828815690441418</v>
+        <v>0.1330872313331162</v>
       </c>
       <c r="T7">
-        <v>0.1828815690441417</v>
+        <v>0.1330872313331162</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>30.93224</v>
       </c>
       <c r="H8">
-        <v>92.79672000000001</v>
+        <v>92.79671999999999</v>
       </c>
       <c r="I8">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="J8">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.43015733333333</v>
+        <v>61.10114166666667</v>
       </c>
       <c r="N8">
-        <v>142.290472</v>
+        <v>183.303425</v>
       </c>
       <c r="O8">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="P8">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="Q8">
-        <v>1467.121009872427</v>
+        <v>1889.995178307333</v>
       </c>
       <c r="R8">
-        <v>13204.08908885184</v>
+        <v>17009.956604766</v>
       </c>
       <c r="S8">
-        <v>0.1498179207331516</v>
+        <v>0.1404510454958598</v>
       </c>
       <c r="T8">
-        <v>0.1498179207331515</v>
+        <v>0.1404510454958598</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>30.93224</v>
       </c>
       <c r="H9">
-        <v>92.79672000000001</v>
+        <v>92.79671999999999</v>
       </c>
       <c r="I9">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="J9">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.129282</v>
+        <v>0.1059033333333333</v>
       </c>
       <c r="N9">
-        <v>0.387846</v>
+        <v>0.31771</v>
       </c>
       <c r="O9">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="P9">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="Q9">
-        <v>3.998981851680001</v>
+        <v>3.275827323466666</v>
       </c>
       <c r="R9">
-        <v>35.99083666512001</v>
+        <v>29.4824459112</v>
       </c>
       <c r="S9">
-        <v>0.000408363824140452</v>
+        <v>0.0002434362678410926</v>
       </c>
       <c r="T9">
-        <v>0.000408363824140452</v>
+        <v>0.0002434362678410925</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.64755633333333</v>
+        <v>47.70664233333334</v>
       </c>
       <c r="H10">
-        <v>115.942669</v>
+        <v>143.119927</v>
       </c>
       <c r="I10">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="J10">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>4.389289333333333</v>
+        <v>3.825035</v>
       </c>
       <c r="N10">
-        <v>13.167868</v>
+        <v>11.475105</v>
       </c>
       <c r="O10">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="P10">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="Q10">
-        <v>169.6353067732991</v>
+        <v>182.4795766574817</v>
       </c>
       <c r="R10">
-        <v>1526.717760959692</v>
+        <v>1642.316189917335</v>
       </c>
       <c r="S10">
-        <v>0.01732263989997382</v>
+        <v>0.0135605887344849</v>
       </c>
       <c r="T10">
-        <v>0.01732263989997381</v>
+        <v>0.0135605887344849</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.64755633333333</v>
+        <v>47.70664233333334</v>
       </c>
       <c r="H11">
-        <v>115.942669</v>
+        <v>143.119927</v>
       </c>
       <c r="I11">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="J11">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>173.692871</v>
       </c>
       <c r="O11">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="P11">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="Q11">
-        <v>2237.601672223633</v>
+        <v>2762.101224215603</v>
       </c>
       <c r="R11">
-        <v>20138.4150500127</v>
+        <v>24858.91101794042</v>
       </c>
       <c r="S11">
-        <v>0.2284970549162252</v>
+        <v>0.2052597854000412</v>
       </c>
       <c r="T11">
-        <v>0.2284970549162252</v>
+        <v>0.2052597854000411</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.64755633333333</v>
+        <v>47.70664233333334</v>
       </c>
       <c r="H12">
-        <v>115.942669</v>
+        <v>143.119927</v>
       </c>
       <c r="I12">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="J12">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.43015733333333</v>
+        <v>61.10114166666667</v>
       </c>
       <c r="N12">
-        <v>142.290472</v>
+        <v>183.303425</v>
       </c>
       <c r="O12">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="P12">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="Q12">
-        <v>1833.059677438863</v>
+        <v>2914.930311649998</v>
       </c>
       <c r="R12">
-        <v>16497.53709694977</v>
+        <v>26234.37280484998</v>
       </c>
       <c r="S12">
-        <v>0.1871864608343057</v>
+        <v>0.2166169599360963</v>
       </c>
       <c r="T12">
-        <v>0.1871864608343056</v>
+        <v>0.2166169599360963</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.64755633333333</v>
+        <v>47.70664233333334</v>
       </c>
       <c r="H13">
-        <v>115.942669</v>
+        <v>143.119927</v>
       </c>
       <c r="I13">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="J13">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.129282</v>
+        <v>0.1059033333333333</v>
       </c>
       <c r="N13">
-        <v>0.387846</v>
+        <v>0.31771</v>
       </c>
       <c r="O13">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="P13">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="Q13">
-        <v>4.996433377886</v>
+        <v>5.052292445241112</v>
       </c>
       <c r="R13">
-        <v>44.96790040097401</v>
+        <v>45.47063200717</v>
       </c>
       <c r="S13">
-        <v>0.0005102205303580841</v>
+        <v>0.000375450564228667</v>
       </c>
       <c r="T13">
-        <v>0.0005102205303580841</v>
+        <v>0.000375450564228667</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.447555666666666</v>
+        <v>8.992316666666666</v>
       </c>
       <c r="H14">
-        <v>13.342667</v>
+        <v>26.97695</v>
       </c>
       <c r="I14">
-        <v>0.04988900718188559</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="J14">
-        <v>0.04988900718188558</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>4.389289333333333</v>
+        <v>3.825035</v>
       </c>
       <c r="N14">
-        <v>13.167868</v>
+        <v>11.475105</v>
       </c>
       <c r="O14">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="P14">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="Q14">
-        <v>19.52160864710622</v>
+        <v>34.39592598108333</v>
       </c>
       <c r="R14">
-        <v>175.694477823956</v>
+        <v>309.56333382975</v>
       </c>
       <c r="S14">
-        <v>0.001993487106513512</v>
+        <v>0.002556061422954487</v>
       </c>
       <c r="T14">
-        <v>0.001993487106513512</v>
+        <v>0.002556061422954488</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.447555666666666</v>
+        <v>8.992316666666666</v>
       </c>
       <c r="H15">
-        <v>13.342667</v>
+        <v>26.97695</v>
       </c>
       <c r="I15">
-        <v>0.04988900718188559</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="J15">
-        <v>0.04988900718188558</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>173.692871</v>
       </c>
       <c r="O15">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="P15">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="Q15">
-        <v>257.5029042252174</v>
+        <v>520.633766258161</v>
       </c>
       <c r="R15">
-        <v>2317.526138026957</v>
+        <v>4685.70389632345</v>
       </c>
       <c r="S15">
-        <v>0.02629541083126097</v>
+        <v>0.03868981129194985</v>
       </c>
       <c r="T15">
-        <v>0.02629541083126097</v>
+        <v>0.03868981129194985</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.447555666666666</v>
+        <v>8.992316666666666</v>
       </c>
       <c r="H16">
-        <v>13.342667</v>
+        <v>26.97695</v>
       </c>
       <c r="I16">
-        <v>0.04988900718188559</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="J16">
-        <v>0.04988900718188558</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.43015733333333</v>
+        <v>61.10114166666667</v>
       </c>
       <c r="N16">
-        <v>142.290472</v>
+        <v>183.303425</v>
       </c>
       <c r="O16">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="P16">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="Q16">
-        <v>210.9482650187582</v>
+        <v>549.4408145615278</v>
       </c>
       <c r="R16">
-        <v>1898.534385168824</v>
+        <v>4944.96733105375</v>
       </c>
       <c r="S16">
-        <v>0.02154139313302062</v>
+        <v>0.04083054693947735</v>
       </c>
       <c r="T16">
-        <v>0.02154139313302061</v>
+        <v>0.04083054693947735</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.447555666666666</v>
+        <v>8.992316666666666</v>
       </c>
       <c r="H17">
-        <v>13.342667</v>
+        <v>26.97695</v>
       </c>
       <c r="I17">
-        <v>0.04988900718188559</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="J17">
-        <v>0.04988900718188558</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.129282</v>
+        <v>0.1059033333333333</v>
       </c>
       <c r="N17">
-        <v>0.387846</v>
+        <v>0.31771</v>
       </c>
       <c r="O17">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="P17">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="Q17">
-        <v>0.5749888916979999</v>
+        <v>0.9523163093888888</v>
       </c>
       <c r="R17">
-        <v>5.174900025282</v>
+        <v>8.570846784499999</v>
       </c>
       <c r="S17">
-        <v>5.871611109048478E-05</v>
+        <v>7.076939816122555E-05</v>
       </c>
       <c r="T17">
-        <v>5.871611109048478E-05</v>
+        <v>7.076939816122555E-05</v>
       </c>
     </row>
   </sheetData>
